--- a/data/dummy_targets.xlsx
+++ b/data/dummy_targets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/krzysztof_bogusz_gds_ey_com/Documents/Desktop/Project/AGI/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{C17728A2-53C9-4633-98DC-E2C4363C362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F69EA6C7-F1B0-4404-9564-9BE2C6DCB5E9}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{C17728A2-53C9-4633-98DC-E2C4363C362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38BA479A-AE2F-418C-AAA9-15BC744C05DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4A45B1A-9CE5-4A0D-B3E0-19F482B6F6A8}"/>
   </bookViews>
@@ -25,15 +25,6 @@
     <t>Employee Identifier</t>
   </si>
   <si>
-    <t xml:space="preserve"> Target Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Target Utilization Pct</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notes</t>
-  </si>
-  <si>
     <t>Emp1</t>
   </si>
   <si>
@@ -56,6 +47,15 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Target Date</t>
+  </si>
+  <si>
+    <t>Target Utilization Pct</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -926,7 +926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F825CA-8FF0-49B5-9667-8F1D031E3D34}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -938,18 +940,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>45764</v>
@@ -958,12 +960,12 @@
         <v>0.9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45764</v>
@@ -972,12 +974,12 @@
         <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45764</v>
@@ -986,12 +988,12 @@
         <v>0.9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45764</v>
@@ -1000,12 +1002,12 @@
         <v>0.9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>45764</v>
@@ -1014,12 +1016,12 @@
         <v>0.9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>45764</v>
@@ -1028,12 +1030,12 @@
         <v>0.9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>45764</v>
@@ -1042,7 +1044,7 @@
         <v>0.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
